--- a/inputsheet.xlsx
+++ b/inputsheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{47576729-4475-4C1A-8B65-025333212337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2619806A-DCC1-42BF-BBA8-A959B6508A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24270" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24300" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>student</t>
   </si>
   <si>
     <t>Password123</t>
-  </si>
-  <si>
-    <t>studentssss</t>
   </si>
 </sst>
 </file>
@@ -358,7 +355,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +394,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>

--- a/inputsheet.xlsx
+++ b/inputsheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2619806A-DCC1-42BF-BBA8-A959B6508A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{424DB323-36B2-4F52-B1B8-41147B22B1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="24300" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>student</t>
   </si>
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,6 +400,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/inputsheet.xlsx
+++ b/inputsheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{424DB323-36B2-4F52-B1B8-41147B22B1C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{12BA4149-E048-4BCD-AB32-D1AA15E51C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24300" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="24300" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>student</t>
   </si>
@@ -355,7 +355,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,36 +377,20 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputsheet.xlsx
+++ b/inputsheet.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{12BA4149-E048-4BCD-AB32-D1AA15E51C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\DataProviderTesting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CE749F-8B17-4087-A646-F7240B58B248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24300" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,12 +61,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -71,7 +90,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,12 +370,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39F4741-C8A4-48C7-BF99-393E0ED8C942}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -376,24 +393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>